--- a/AccountManegments.Web/wwwroot/UploadExcelFile/ItemMasters.xlsx
+++ b/AccountManegments.Web/wwwroot/UploadExcelFile/ItemMasters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E472EAC-ED33-413F-9D86-05BBA85770C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7892DB5-A144-42C0-B5B2-010BFFFD1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E6103F-5581-4A1E-86ED-0834FFD90D37}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,8 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
